--- a/design/Partslist_Group_PE12.xlsx
+++ b/design/Partslist_Group_PE12.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitlab_hsrw\pe12\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitlab_projects\pe12\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1432436C-AAC5-4A98-8B87-6B9DAC53EBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Group no.</t>
   </si>
@@ -114,9 +128,6 @@
     <t>https://eu.mouser.com/ProductDetail/Keystone-Electronics/2479?qs=Q3RoVmURDomBPD85HfXZoA%3D%3D</t>
   </si>
   <si>
-    <t>AAA battery</t>
-  </si>
-  <si>
     <t>Microchip Technology / Atmel</t>
   </si>
   <si>
@@ -126,9 +137,6 @@
     <t>MIC5205-3.3YM5-TR</t>
   </si>
   <si>
-    <t>998-MIC5205-3.3YM5TR</t>
-  </si>
-  <si>
     <t>Lite-On</t>
   </si>
   <si>
@@ -168,9 +176,6 @@
     <t>AYZ0102AGRLC</t>
   </si>
   <si>
-    <t>611-AYZ0102AGRLC</t>
-  </si>
-  <si>
     <t>total price*</t>
   </si>
   <si>
@@ -241,13 +246,52 @@
   </si>
   <si>
     <t>https://www.reichelt.de/de/en/alkaline-battery-aaa-pack-of-8-logilink-lr03f8-p225261.html?&amp;trstct=pos_12&amp;nbc=1</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>B3SN-3112P</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 0.05A 24V</t>
+  </si>
+  <si>
+    <t>8 x AAA battery</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR 1206 SMD</t>
+  </si>
+  <si>
+    <t> Lite-On</t>
+  </si>
+  <si>
+    <t>LTST-C150GKT</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>CLV1A-FKB-CK1VW1DE1BB7C3C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Single Print Connector Straight 4-Pin Pitch 2,54 mm</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>PSS 254/4G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +319,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -558,17 +610,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -653,9 +700,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,27 +727,12 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -725,92 +754,117 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1110,695 +1164,790 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+      <c r="B1" s="76"/>
+      <c r="C1" s="1">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="20">
+        <v>3.6</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" ref="I5:I12" si="0">B5*H5</f>
+        <v>3.6</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="0"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2479</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="27">
+        <v>1.54</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="22">
-        <v>3.6</v>
-      </c>
-      <c r="I5" s="22">
-        <v>3.6</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="G8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="27">
+        <v>1.85</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="25">
+        <v>845</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.36</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>7</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0.44</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>8</v>
+      </c>
+      <c r="B12" s="30">
+        <v>3</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="32">
+        <v>875</v>
+      </c>
+      <c r="H12" s="34">
+        <v>1.02</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="0"/>
+        <v>3.06</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>9</v>
+      </c>
+      <c r="B13" s="30">
+        <v>9</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="32">
+        <v>876</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0.95</v>
+      </c>
+      <c r="I13" s="34">
+        <f>B13*H13</f>
+        <v>8.5499999999999989</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>10</v>
+      </c>
+      <c r="B14" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="C14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="32">
+        <v>848</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I14" s="34">
+        <f>B14*H14</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>11</v>
+      </c>
+      <c r="B15" s="30">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="28" t="s">
+      <c r="C15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="32">
+        <v>846</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="34">
+        <f>B15*H15</f>
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>12</v>
+      </c>
+      <c r="B16" s="30">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="32">
+        <v>174</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0.06</v>
+      </c>
+      <c r="I16" s="34">
+        <f>B16*H16</f>
+        <v>0.06</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>13</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>14</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>15</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="81"/>
+      <c r="I20" s="40">
+        <f>SUM(I5:I19)</f>
+        <v>21.999999999999996</v>
+      </c>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
+      <c r="G21" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="47">
+        <f>I20*0.19</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="G22" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="47">
+        <f>I20*1.19</f>
+        <v>26.179999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="68"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="68"/>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="29">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I6" s="29">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25">
-        <v>1</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="31">
-        <v>2479</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="29">
-        <v>1.54</v>
-      </c>
-      <c r="I7" s="29">
-        <v>1.54</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25">
-        <v>8</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="B25" s="66"/>
+      <c r="C25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="H25" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="I8" s="29">
-        <v>1.85</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0.36</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0.36</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25">
-        <v>3</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0.52</v>
-      </c>
-      <c r="I10" s="29">
-        <v>1.56</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
-        <v>7</v>
-      </c>
-      <c r="B11" s="33">
-        <v>1</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0.44</v>
-      </c>
-      <c r="I11" s="37">
-        <v>0.44</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
-        <v>8</v>
-      </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="37">
-        <v>1.02</v>
-      </c>
-      <c r="I12" s="37">
-        <v>1.02</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
-        <v>9</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
-        <v>10</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
-        <v>11</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
-        <v>12</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
-        <v>13</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
-        <v>14</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
-        <v>15</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48">
-        <f>SUM(I5:I19)</f>
-        <v>11.53</v>
-      </c>
-      <c r="J20" s="49"/>
-    </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="G21" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57">
-        <f>I20*0.19</f>
-        <v>2.1907000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="G22" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57">
-        <f>I20*1.19</f>
-        <v>13.720699999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="67"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="H25" s="12" t="s">
+      <c r="E26" s="64"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="72"/>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="72"/>
-    </row>
-    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="75"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="80"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80"/>
-    </row>
-    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="80"/>
-    </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="80"/>
-    </row>
-    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
-    </row>
-    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="80"/>
-    </row>
-    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
-    </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="A24:B24"/>
@@ -1807,19 +1956,11 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{27ABE120-062E-439C-9ED4-640A10F63D93}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>